--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.39923522426762</v>
+        <v>26.49743044861422</v>
       </c>
       <c r="C11" t="n">
-        <v>77.02490900780761</v>
+        <v>77.24040092065042</v>
       </c>
       <c r="D11" t="n">
-        <v>81.2968033094118</v>
+        <v>81.38174308963364</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.55153841160319</v>
+        <v>27.77491824485615</v>
       </c>
       <c r="C12" t="n">
-        <v>77.75586167037704</v>
+        <v>81.8749456817325</v>
       </c>
       <c r="D12" t="n">
-        <v>82.02000928879575</v>
+        <v>85.52665265360599</v>
       </c>
     </row>
     <row r="13">
